--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.920625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="19.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="23.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.070625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.120625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.210625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.930625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.340625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.740625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.020625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.580625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.240625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.390625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.650625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.640625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.540625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.950625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.680625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.390625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.650625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.640625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.540625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="19.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.950625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.680625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.880625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.300625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="21.290625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="25.210625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.400625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.360625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.880625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.300625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="21.290625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="25.210625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.400625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.360625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.570625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.740625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.820625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.250625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.360625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.880625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.870625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.570625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.740625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.820625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.250625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="26.360625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.870625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.580577" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.269228" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.080586" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.881643" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.717452" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.200365" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.132422" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.030625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.030625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.080625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.030625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.030625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.080625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="10.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.070625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.080625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.300625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.230625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.010625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -476,13 +476,13 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:f>A2+$B$2</x:f>
         <x:v>3</x:v>
       </x:c>
@@ -492,7 +492,7 @@
       <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="n">
+      <x:c r="F2" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2" s="0" t="str">
@@ -501,13 +501,13 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:f>A3+$B$3</x:f>
         <x:v>3</x:v>
       </x:c>
@@ -517,7 +517,7 @@
       <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="F3" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G3" s="0" t="str">
@@ -554,7 +554,7 @@
       <x:c r="A6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
         <x:v>2</x:v>
       </x:c>
@@ -566,30 +566,30 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:f>A2 + A10_R1C1_A10_R1C1</x:f>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0" t="n">
+      <x:c r="A12" s="0">
         <x:f>$A$2 + A10_R1C1_A10_R1C1</x:f>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="n">
+      <x:c r="A13" s="0">
         <x:f>SUM(8:9)</x:f>
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0" t="n">
+      <x:c r="A14" s="0">
         <x:f>SUM(8:9)</x:f>
         <x:v>0</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -558,11 +558,13 @@
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C6" s="0">
+      <x:c r="C6" s="0" t="e">
         <x:f t="array" ref="C6:D6">TRANSPOSE(A2:A3)</x:f>
-      </x:c>
-      <x:c r="D6" s="0">
+        <x:v>#NAME?</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="e">
         <x:f t="array"/>
+        <x:v>#NAME?</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Num1</x:t>
   </x:si>
@@ -443,13 +443,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.070625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.080625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.300625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.230625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.140625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.010625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="19.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="23.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="10.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -557,13 +557,12 @@
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="e">
+      <x:c r="C6" s="0">
         <x:f t="array" ref="C6:D6">TRANSPOSE(A2:A3)</x:f>
-        <x:v>#NAME?</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="e">
-        <x:f t="array"/>
-        <x:v>#NAME?</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D6" s="0">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Formulas" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Formulas" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="A10_R1C1_A10_R1C1">Formulas!$A$10:$A$10</x:definedName>

--- a/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/FormulasWithEvaluation.xlsx
@@ -60,7 +60,7 @@
     <x:t>"Test" &amp; A4 &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
-    <x:t>="Test" &amp; RC[-2] &amp; "R3C2"</x:t>
+    <x:t>"Test" &amp; RC[-2] &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
     <x:t>TestAR3C2</x:t>
@@ -447,7 +447,7 @@
     <x:col min="2" max="2" width="6.139196" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.282054" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="19.853482" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="23.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="22.996339" style="0" customWidth="1"/>
     <x:col min="6" max="7" width="10.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
